--- a/xlsx/圣盖博_intext.xlsx
+++ b/xlsx/圣盖博_intext.xlsx
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%81%89%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>嘉偉學區</t>
+    <t>嘉伟学区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BD%95%E5%B8%83%E6%8B%89%E8%81%AF%E5%90%88%E5%AD%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>阿罕布拉聯合學區</t>
+    <t>阿罕布拉联合学区</t>
   </si>
 </sst>
 </file>
